--- a/_data/ni/ni9394/individueel_eindstand_dworp_123_9394.xlsx
+++ b/_data/ni/ni9394/individueel_eindstand_dworp_123_9394.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12840" activeTab="10"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -2672,7 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -14633,8 +14633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14760,13 +14760,13 @@
         <v>1900</v>
       </c>
       <c r="E6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="14" t="s">
@@ -14871,13 +14871,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="13">
         <v>1.5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13">
-        <v>2.5</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16" t="str">

--- a/_data/ni/ni9394/individueel_eindstand_dworp_123_9394.xlsx
+++ b/_data/ni/ni9394/individueel_eindstand_dworp_123_9394.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12840" activeTab="5"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="234">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -124,21 +124,6 @@
     <t>R11</t>
   </si>
   <si>
-    <t>La Louvière</t>
-  </si>
-  <si>
-    <t>Catalano J</t>
-  </si>
-  <si>
-    <t>Gorczica X</t>
-  </si>
-  <si>
-    <t>Ventat G</t>
-  </si>
-  <si>
-    <t>Barthelemy R</t>
-  </si>
-  <si>
     <t>Taelemans Werner</t>
   </si>
   <si>
@@ -160,90 +145,6 @@
     <t>Perpete Raymond</t>
   </si>
   <si>
-    <t>De Geradon J</t>
-  </si>
-  <si>
-    <t>Cappuchi D</t>
-  </si>
-  <si>
-    <t>Meunier W</t>
-  </si>
-  <si>
-    <t>Binche</t>
-  </si>
-  <si>
-    <t>Verschueren F</t>
-  </si>
-  <si>
-    <t>Szklawecki S</t>
-  </si>
-  <si>
-    <t>Michel A</t>
-  </si>
-  <si>
-    <t>Debrouwer Ph</t>
-  </si>
-  <si>
-    <t>Rixensart</t>
-  </si>
-  <si>
-    <t>Lambert M</t>
-  </si>
-  <si>
-    <t>Sneiders P</t>
-  </si>
-  <si>
-    <t>Vanderlinden M</t>
-  </si>
-  <si>
-    <t>Boonen</t>
-  </si>
-  <si>
-    <t>Mons 3</t>
-  </si>
-  <si>
-    <t>Levers T</t>
-  </si>
-  <si>
-    <t>Lamproye JP</t>
-  </si>
-  <si>
-    <t>Couvreur G</t>
-  </si>
-  <si>
-    <t>Lombart M</t>
-  </si>
-  <si>
-    <t>Fous du Roy 1</t>
-  </si>
-  <si>
-    <t>Brion P</t>
-  </si>
-  <si>
-    <t>Rehak J</t>
-  </si>
-  <si>
-    <t>Bourgeois P</t>
-  </si>
-  <si>
-    <t>Fonteyne J</t>
-  </si>
-  <si>
-    <t>Soignies 2</t>
-  </si>
-  <si>
-    <t>Canneel M</t>
-  </si>
-  <si>
-    <t>Boon Th</t>
-  </si>
-  <si>
-    <t>André H</t>
-  </si>
-  <si>
-    <t>De Gendt</t>
-  </si>
-  <si>
     <t>4F</t>
   </si>
   <si>
@@ -253,105 +154,27 @@
     <t>5K</t>
   </si>
   <si>
-    <t>Geraardsbergen 2</t>
-  </si>
-  <si>
     <t>228 Dworp 2</t>
   </si>
   <si>
-    <t>Matthys K</t>
-  </si>
-  <si>
     <t>Mertens François</t>
   </si>
   <si>
-    <t>Motte J</t>
-  </si>
-  <si>
     <t>Maeckelbergh Mieke</t>
   </si>
   <si>
-    <t>Achtergaele K</t>
-  </si>
-  <si>
     <t>Maeckelbergh Geert</t>
   </si>
   <si>
-    <t>Lallemand P</t>
-  </si>
-  <si>
     <t>Lemmens Pierre</t>
   </si>
   <si>
-    <t>Humbeek 2</t>
-  </si>
-  <si>
-    <t>Saenen R</t>
-  </si>
-  <si>
-    <t>De Jonckheere G</t>
-  </si>
-  <si>
-    <t>Jacobs F</t>
-  </si>
-  <si>
     <t>Lamair Daniël</t>
   </si>
   <si>
-    <t>Van Steenkiste L</t>
-  </si>
-  <si>
-    <t>Maladry A</t>
-  </si>
-  <si>
     <t>De Bouver Guido</t>
   </si>
   <si>
-    <t>Bruynooghe JP</t>
-  </si>
-  <si>
-    <t>Zelzate</t>
-  </si>
-  <si>
-    <t>Van Vliet D</t>
-  </si>
-  <si>
-    <t>Broekhuizen P</t>
-  </si>
-  <si>
-    <t>Van Hoorebeke J</t>
-  </si>
-  <si>
-    <t>Claeys P</t>
-  </si>
-  <si>
-    <t>De Backere JP</t>
-  </si>
-  <si>
-    <t>Ongena G</t>
-  </si>
-  <si>
-    <t>Vanbelleghem C</t>
-  </si>
-  <si>
-    <t>Verbruggen H</t>
-  </si>
-  <si>
-    <t>De Munck J</t>
-  </si>
-  <si>
-    <t>Peelman L</t>
-  </si>
-  <si>
-    <t>De Saegher J</t>
-  </si>
-  <si>
-    <t>De Fre W</t>
-  </si>
-  <si>
-    <t>Opwijk 1</t>
-  </si>
-  <si>
     <t>Rogiers Jan</t>
   </si>
   <si>
@@ -364,300 +187,66 @@
     <t>Dierickx Jan</t>
   </si>
   <si>
-    <t>Thibaut 2</t>
-  </si>
-  <si>
     <t>228 Dworp 3</t>
   </si>
   <si>
-    <t>Pagnoul A</t>
-  </si>
-  <si>
     <t>Deklerck Willy</t>
   </si>
   <si>
-    <t>Bailleul F</t>
-  </si>
-  <si>
     <t>De Bosscher Peter</t>
   </si>
   <si>
-    <t>Gil</t>
-  </si>
-  <si>
     <t>Van der Voorde Sonja</t>
   </si>
   <si>
-    <t>Bodart</t>
-  </si>
-  <si>
     <t>Merckx Eddy</t>
   </si>
   <si>
     <t>ng</t>
   </si>
   <si>
-    <t>CRE Charleroi 5</t>
-  </si>
-  <si>
-    <t>Gvessier P</t>
-  </si>
-  <si>
-    <t>Michotte S</t>
-  </si>
-  <si>
     <t>Breda André</t>
   </si>
   <si>
-    <t>Deboule P</t>
-  </si>
-  <si>
-    <t>Cardillo M</t>
-  </si>
-  <si>
-    <t>Marchiano M</t>
-  </si>
-  <si>
-    <t>Renard J</t>
-  </si>
-  <si>
-    <t>Soretti V</t>
-  </si>
-  <si>
-    <t>Chant D'oiseau</t>
-  </si>
-  <si>
-    <t>Lemaire R</t>
-  </si>
-  <si>
-    <t>Berth P</t>
-  </si>
-  <si>
-    <t>Van Landewijck M</t>
-  </si>
-  <si>
-    <t>Monsigny A</t>
-  </si>
-  <si>
-    <t>Woluwe 2</t>
-  </si>
-  <si>
-    <t>Geerinckx B</t>
-  </si>
-  <si>
-    <t>Poppe W</t>
-  </si>
-  <si>
-    <t>Laemont F</t>
-  </si>
-  <si>
-    <t>Rauta N</t>
-  </si>
-  <si>
-    <t>Fous du Roy 4</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Struys</t>
-  </si>
-  <si>
-    <t>Colesanti</t>
-  </si>
-  <si>
-    <t>Poulain</t>
-  </si>
-  <si>
-    <t>Soignies 5</t>
-  </si>
-  <si>
-    <t>Sottiaux</t>
-  </si>
-  <si>
     <t>Coppens Jean</t>
   </si>
   <si>
-    <t>Lousberg J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouthier </t>
-  </si>
-  <si>
-    <t>CRE Charleroi 6</t>
-  </si>
-  <si>
-    <t>Verheyden F</t>
-  </si>
-  <si>
-    <t>Grobelny F</t>
-  </si>
-  <si>
-    <t>Leonard F</t>
-  </si>
-  <si>
-    <t>Gregorio S</t>
-  </si>
-  <si>
-    <t>Pat Berchem</t>
-  </si>
-  <si>
-    <t>Joseph F</t>
-  </si>
-  <si>
-    <t>Gervais J</t>
-  </si>
-  <si>
-    <t>Staes M</t>
-  </si>
-  <si>
-    <t>Van Belle D</t>
-  </si>
-  <si>
-    <t>Prodan S</t>
-  </si>
-  <si>
     <t>De Boeck Pierre</t>
   </si>
   <si>
     <t>Louckx André</t>
   </si>
   <si>
-    <t>Roque 4</t>
-  </si>
-  <si>
-    <t>Van den hove A</t>
-  </si>
-  <si>
-    <t>Fory B</t>
-  </si>
-  <si>
     <t>Pereira Boris</t>
   </si>
   <si>
     <t>Candanedo Salvador</t>
   </si>
   <si>
-    <t>Wittock R</t>
-  </si>
-  <si>
-    <t>Den Doncker J</t>
-  </si>
-  <si>
-    <t>Bosman L</t>
-  </si>
-  <si>
-    <t>De Redder M</t>
-  </si>
-  <si>
-    <t>Ruisbroek</t>
-  </si>
-  <si>
     <t>Uylenbroeck Roland</t>
   </si>
   <si>
     <t>Huysman Robert</t>
   </si>
   <si>
-    <t>Van Geyt V</t>
-  </si>
-  <si>
     <t>Vanpé Peter</t>
   </si>
   <si>
-    <t>Melet G</t>
-  </si>
-  <si>
-    <t>Kaczmarzyk L</t>
-  </si>
-  <si>
-    <t>Manne JL</t>
-  </si>
-  <si>
-    <t>Majewski P</t>
-  </si>
-  <si>
-    <t>Zottegem 2</t>
-  </si>
-  <si>
-    <t>Watte S</t>
-  </si>
-  <si>
-    <t>Van der Borght F</t>
-  </si>
-  <si>
     <t>Temmerman Hans</t>
   </si>
   <si>
-    <t>Van Wassenhove M</t>
-  </si>
-  <si>
-    <t>Ludisan 4</t>
-  </si>
-  <si>
-    <t>Courtois JM</t>
-  </si>
-  <si>
-    <t>André D</t>
-  </si>
-  <si>
-    <t>Gillet A</t>
-  </si>
-  <si>
-    <t>Merget Th</t>
-  </si>
-  <si>
     <t>Steenwerckx Remy</t>
   </si>
   <si>
     <t>Verschoren François</t>
   </si>
   <si>
-    <t>Lessines 1</t>
-  </si>
-  <si>
     <t>Masure Luc</t>
   </si>
   <si>
-    <t>Hannecart M</t>
-  </si>
-  <si>
-    <t>Knudde F</t>
-  </si>
-  <si>
-    <t>Quievy P</t>
-  </si>
-  <si>
-    <t>Mariakerke 2</t>
-  </si>
-  <si>
-    <t>Gunst F</t>
-  </si>
-  <si>
-    <t>De Reu P</t>
-  </si>
-  <si>
-    <t>Develder J</t>
-  </si>
-  <si>
-    <t>Kegels K</t>
-  </si>
-  <si>
-    <t>Roque 6</t>
-  </si>
-  <si>
     <t>Grede Manfred</t>
   </si>
   <si>
-    <t>Vanwinckel</t>
-  </si>
-  <si>
-    <t>Rando M</t>
-  </si>
-  <si>
-    <t>Heinzel</t>
-  </si>
-  <si>
     <t>Ranking</t>
   </si>
   <si>
@@ -679,36 +268,6 @@
     <t>XX</t>
   </si>
   <si>
-    <t>CRE Charleroi 2</t>
-  </si>
-  <si>
-    <t>Montignies</t>
-  </si>
-  <si>
-    <t>Wavre 2</t>
-  </si>
-  <si>
-    <t>Lokeren 1</t>
-  </si>
-  <si>
-    <t>Oudenaarde 1</t>
-  </si>
-  <si>
-    <t>Jean Jaures 4</t>
-  </si>
-  <si>
-    <t>Dendermonde 2</t>
-  </si>
-  <si>
-    <t>Benéchecs</t>
-  </si>
-  <si>
-    <t>Chant d'Oiseau</t>
-  </si>
-  <si>
-    <t>nm</t>
-  </si>
-  <si>
     <t>2) opmerkingen van 10/1/2017 opgelost met VSF-Info van nov 1993</t>
   </si>
   <si>
@@ -716,6 +275,459 @@
   </si>
   <si>
     <t>1) eerst de versie 2 bijgewerkt volgens tekst van 27/12/2016</t>
+  </si>
+  <si>
+    <t>Bailleul Freddy</t>
+  </si>
+  <si>
+    <t>Gil David</t>
+  </si>
+  <si>
+    <t>Bodart Pierre</t>
+  </si>
+  <si>
+    <t>Pagnoul Alex</t>
+  </si>
+  <si>
+    <t>Catalano Joseph</t>
+  </si>
+  <si>
+    <t>511 La Louvière</t>
+  </si>
+  <si>
+    <t>Ventat Guy</t>
+  </si>
+  <si>
+    <t>Barthelemy René</t>
+  </si>
+  <si>
+    <t>Matthys Luc</t>
+  </si>
+  <si>
+    <t>418 Geraardsbergen 2</t>
+  </si>
+  <si>
+    <t>Motte Jan</t>
+  </si>
+  <si>
+    <t>Gorczyca Xavier</t>
+  </si>
+  <si>
+    <t>Achtergaele Koen</t>
+  </si>
+  <si>
+    <t>Lallemand Paul</t>
+  </si>
+  <si>
+    <t>244 Thibaut 2</t>
+  </si>
+  <si>
+    <t>952 Wavre 2</t>
+  </si>
+  <si>
+    <t>De Geradon Jean</t>
+  </si>
+  <si>
+    <t>Meunier Willy</t>
+  </si>
+  <si>
+    <t>260 Humbeek 2</t>
+  </si>
+  <si>
+    <t>Saenen René</t>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>De Jonckheere Gilbert</t>
+  </si>
+  <si>
+    <t>Jacobs Alphonse</t>
+  </si>
+  <si>
+    <t>Cappucci Donato</t>
+  </si>
+  <si>
+    <t>Gressier Philippe</t>
+  </si>
+  <si>
+    <t>501 CRE Charleroi 5</t>
+  </si>
+  <si>
+    <t>Michotte Sebastien</t>
+  </si>
+  <si>
+    <t>523 Binche</t>
+  </si>
+  <si>
+    <t>Verschueren Frederic</t>
+  </si>
+  <si>
+    <t>Szklanecki Stanis</t>
+  </si>
+  <si>
+    <t>Michel André</t>
+  </si>
+  <si>
+    <t>Debrouwer Philippe</t>
+  </si>
+  <si>
+    <t>Van Steenkiste Luc</t>
+  </si>
+  <si>
+    <t>Maladry Alexis</t>
+  </si>
+  <si>
+    <t>460 Oudenaarde 1</t>
+  </si>
+  <si>
+    <t>Bruynooghe Jean-Pierre</t>
+  </si>
+  <si>
+    <t>501 CRE Charleroi 6</t>
+  </si>
+  <si>
+    <t>Cardillo Mario</t>
+  </si>
+  <si>
+    <t>Marchiano Marco</t>
+  </si>
+  <si>
+    <t>Renard Jérôme</t>
+  </si>
+  <si>
+    <t>Soretti Vincenzo</t>
+  </si>
+  <si>
+    <t>Lambert Michel</t>
+  </si>
+  <si>
+    <t>954 Rixensart</t>
+  </si>
+  <si>
+    <t>Sneiders Pierre</t>
+  </si>
+  <si>
+    <t>Vanderlinden Michel</t>
+  </si>
+  <si>
+    <t>Boonen Etienne</t>
+  </si>
+  <si>
+    <t>471 Zelzate</t>
+  </si>
+  <si>
+    <t>Van Vliet Dennis</t>
+  </si>
+  <si>
+    <t>Claeys Patrick</t>
+  </si>
+  <si>
+    <t>Lemaire Robert</t>
+  </si>
+  <si>
+    <t>289 Chant D'oiseau</t>
+  </si>
+  <si>
+    <t>Berth Patrick</t>
+  </si>
+  <si>
+    <t>Van Landewyck Michel</t>
+  </si>
+  <si>
+    <t>Monsigny Alain</t>
+  </si>
+  <si>
+    <t>Levers Thierry</t>
+  </si>
+  <si>
+    <t>Lamproye Jean Paul</t>
+  </si>
+  <si>
+    <t>506 Mons 3</t>
+  </si>
+  <si>
+    <t>Couvreur Gaetan</t>
+  </si>
+  <si>
+    <t>Lombart Michel</t>
+  </si>
+  <si>
+    <t>402 Jean Jaures 4</t>
+  </si>
+  <si>
+    <t>Ongena Gilbert</t>
+  </si>
+  <si>
+    <t>Vanbelleghem Eric</t>
+  </si>
+  <si>
+    <t>Verbruggen Hugo</t>
+  </si>
+  <si>
+    <t>Geerinckx Bernard</t>
+  </si>
+  <si>
+    <t>229 Woluwe 2</t>
+  </si>
+  <si>
+    <t>Poppe Wilfried</t>
+  </si>
+  <si>
+    <t>Laemont Jean</t>
+  </si>
+  <si>
+    <t>Rauta Nicolas</t>
+  </si>
+  <si>
+    <t>Brion Philippe</t>
+  </si>
+  <si>
+    <t>203 Fous du Roy 1</t>
+  </si>
+  <si>
+    <t>Rehak Jan</t>
+  </si>
+  <si>
+    <t>Bourgeois Pierre</t>
+  </si>
+  <si>
+    <t>Peelman Lieven</t>
+  </si>
+  <si>
+    <t>436 Lokeren 1</t>
+  </si>
+  <si>
+    <t>De Saegher Johan</t>
+  </si>
+  <si>
+    <t>De Fré Walter</t>
+  </si>
+  <si>
+    <t>De Munck Jan</t>
+  </si>
+  <si>
+    <t>Fonteyne Jacques</t>
+  </si>
+  <si>
+    <t>Colesanti Ugo Maria</t>
+  </si>
+  <si>
+    <t>Struys Christophe</t>
+  </si>
+  <si>
+    <t>203 Fous du Roy 4</t>
+  </si>
+  <si>
+    <t>Poulain Philippe</t>
+  </si>
+  <si>
+    <t>Canneel Michel</t>
+  </si>
+  <si>
+    <t>Boon Thierry</t>
+  </si>
+  <si>
+    <t>518 Soignies 2</t>
+  </si>
+  <si>
+    <t>André Henri-Jean</t>
+  </si>
+  <si>
+    <t>De Gendt Eddy</t>
+  </si>
+  <si>
+    <t>261 Opwijk 1</t>
+  </si>
+  <si>
+    <t>518 Soignies 5</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Sottieaux Patrick</t>
+  </si>
+  <si>
+    <t>Lousberg Jacques</t>
+  </si>
+  <si>
+    <t>Mouthier  Rodolphe</t>
+  </si>
+  <si>
+    <t>501 CRE Charleroi 2</t>
+  </si>
+  <si>
+    <t>Verheyden Frédéric</t>
+  </si>
+  <si>
+    <t>Grobelny Fabrice</t>
+  </si>
+  <si>
+    <t>Leonard Fabrice</t>
+  </si>
+  <si>
+    <t>Gregorio Santiago</t>
+  </si>
+  <si>
+    <t>Joseph Fernand</t>
+  </si>
+  <si>
+    <t>Gervais Jacques</t>
+  </si>
+  <si>
+    <t>Staes Marcel</t>
+  </si>
+  <si>
+    <t>Van Belle Daniel</t>
+  </si>
+  <si>
+    <t>Prodan Serge</t>
+  </si>
+  <si>
+    <t>204 Benéchecs</t>
+  </si>
+  <si>
+    <t>Van Den Hove Anugrah</t>
+  </si>
+  <si>
+    <t>Fory Benny</t>
+  </si>
+  <si>
+    <t>245 Roque 4</t>
+  </si>
+  <si>
+    <t>Wittock René</t>
+  </si>
+  <si>
+    <t>Den Doncker Joseph</t>
+  </si>
+  <si>
+    <t>425 Dendermonde 2</t>
+  </si>
+  <si>
+    <t>Bosman Luc</t>
+  </si>
+  <si>
+    <t>De Ridder Michael</t>
+  </si>
+  <si>
+    <t>Van Geyt Vincent</t>
+  </si>
+  <si>
+    <t>249 Ruisbroek</t>
+  </si>
+  <si>
+    <t>Melet Gilles</t>
+  </si>
+  <si>
+    <t>528 Montignies</t>
+  </si>
+  <si>
+    <t>Kaczmarzyk Lucien</t>
+  </si>
+  <si>
+    <t>Manne Jean-Luc</t>
+  </si>
+  <si>
+    <t>Majewski Philippe</t>
+  </si>
+  <si>
+    <t>462 Zottegem 2</t>
+  </si>
+  <si>
+    <t>Watte Stefaan</t>
+  </si>
+  <si>
+    <t>Van Der Borght Filip</t>
+  </si>
+  <si>
+    <t>Van Wassenhove Marc</t>
+  </si>
+  <si>
+    <t>Courtois Jean-michel</t>
+  </si>
+  <si>
+    <t>910 Ludisan 4</t>
+  </si>
+  <si>
+    <t>André Damien</t>
+  </si>
+  <si>
+    <t>Gillet Aurore</t>
+  </si>
+  <si>
+    <t>Merget Thierry</t>
+  </si>
+  <si>
+    <t>3) ploegnummers, stamnummers en elo van tegenstanders toegevoegd met behulp van partijen-database van Dworp</t>
+  </si>
+  <si>
+    <t>Knudde Francis</t>
+  </si>
+  <si>
+    <t>533 Lessines 1</t>
+  </si>
+  <si>
+    <t>Hannecart Marc</t>
+  </si>
+  <si>
+    <t>Quievy Pascal</t>
+  </si>
+  <si>
+    <t>Gunst Frank</t>
+  </si>
+  <si>
+    <t>De Reu Paul</t>
+  </si>
+  <si>
+    <t>442 Mariakerke 2</t>
+  </si>
+  <si>
+    <t>Kegels Kristof</t>
+  </si>
+  <si>
+    <t>Develder Jacques</t>
+  </si>
+  <si>
+    <t>Vanwinckel Sandy</t>
+  </si>
+  <si>
+    <t>Rando Manuel</t>
+  </si>
+  <si>
+    <t>245 Roque 6</t>
+  </si>
+  <si>
+    <t>Heinzel Glenn</t>
+  </si>
+  <si>
+    <t>289 Chant d'Oiseau</t>
+  </si>
+  <si>
+    <t>210 Pat Berchem</t>
+  </si>
+  <si>
+    <t>De Backere Jean-Pierre</t>
+  </si>
+  <si>
+    <t>Simon Georges</t>
+  </si>
+  <si>
+    <t>en website chessraccoon.skoudegod.be (pieter)</t>
+  </si>
+  <si>
+    <t>4) elo spelers dworp verbeterd met behulp van www.skdworp.be/elo/ (pieter)</t>
+  </si>
+  <si>
+    <t>Deboulle Patrick</t>
+  </si>
+  <si>
+    <t>Van Hoorebeke Jimmy</t>
+  </si>
+  <si>
+    <t>Broekhuizen Peter</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,7 +1496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1789,11 +1800,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1801,13 +1810,13 @@
     <col min="2" max="2" width="9.5703125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:13" ht="21">
       <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:8">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:13">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
@@ -1823,45 +1832,45 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:13">
       <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="31"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="73" t="s">
-        <v>228</v>
+    <row r="10" spans="1:13">
+      <c r="B10" s="72" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="57"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="72" t="s">
-        <v>229</v>
+    <row r="11" spans="1:13">
+      <c r="B11" s="71" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
@@ -1870,9 +1879,9 @@
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="72" t="s">
-        <v>227</v>
+    <row r="12" spans="1:13">
+      <c r="B12" s="71" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
@@ -1881,11 +1890,43 @@
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="71"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="71"/>
+    <row r="13" spans="1:13">
+      <c r="B13" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1897,7 +1938,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1937,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1947,7 +1988,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1989,10 +2030,10 @@
         <v>76325</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -2003,11 +2044,15 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>25992</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1735</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -2017,10 +2062,10 @@
         <v>2283</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="18">
-        <v>1900</v>
+        <v>1978</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -2031,11 +2076,15 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>68195</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>188</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1774</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -2045,10 +2094,10 @@
         <v>76333</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="18">
-        <v>1919</v>
+        <v>1894</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -2059,11 +2108,15 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>82805</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1764</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -2073,10 +2126,10 @@
         <v>31348</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18">
-        <v>1916</v>
+        <v>1880</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -2087,11 +2140,15 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>81507</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1638</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -2130,7 +2187,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1915.25</v>
+        <v>1918.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2143,9 +2200,9 @@
         <v>2</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1727.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2160,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2170,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2212,10 +2269,10 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18">
-        <v>2021</v>
+        <v>2034</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -2226,11 +2283,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>76791</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1664</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -2240,10 +2301,10 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18">
-        <v>1946</v>
+        <v>1929</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -2254,11 +2315,15 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>60</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>191</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1633</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -2268,10 +2333,10 @@
         <v>43419</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D17" s="18">
-        <v>1838</v>
+        <v>1794</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -2282,11 +2347,15 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>13765</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>193</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1585</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -2296,10 +2365,10 @@
         <v>76317</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" s="18">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
@@ -2310,18 +2379,22 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>41777</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>194</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1910.25</v>
+        <v>1900</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -2334,9 +2407,9 @@
         <v>0</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1627.3333333333333</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -2351,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2361,7 +2434,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2403,10 +2476,10 @@
         <v>43419</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
-        <v>1845</v>
+        <v>1824</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -2417,11 +2490,15 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>65935</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1858</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -2431,10 +2508,10 @@
         <v>27715</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -2445,11 +2522,15 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>15482</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1605</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -2459,10 +2540,10 @@
         <v>655</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
-        <v>1641</v>
+        <v>1734</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -2473,11 +2554,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>40151</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1654</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -2487,10 +2572,10 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -2502,19 +2587,21 @@
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <v>10157</v>
+        <v>4014</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1300</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1692.5</v>
+        <v>1709</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -2527,9 +2614,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1604.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -2673,7 +2760,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2713,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2723,7 +2810,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2761,11 +2848,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>68942</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2013</v>
+      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
@@ -2779,21 +2870,25 @@
         <v>76325</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J5" s="18">
-        <v>1926</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>81604</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2002</v>
+      </c>
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
@@ -2807,21 +2902,25 @@
         <v>2283</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J6" s="18">
-        <v>1900</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>91201</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1914</v>
+      </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -2835,21 +2934,25 @@
         <v>76333</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" s="18">
-        <v>1919</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>94099</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1917</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
@@ -2863,10 +2966,10 @@
         <v>31348</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J8" s="18">
-        <v>1916</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2904,9 +3007,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1961.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2921,7 +3024,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1915.25</v>
+        <v>1918.5</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2936,7 +3039,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2946,7 +3049,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2984,11 +3087,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>54500</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1892</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -3002,21 +3109,25 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J15" s="18">
-        <v>2021</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>10961</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1885</v>
+      </c>
       <c r="E16" s="10">
         <v>1</v>
       </c>
@@ -3030,21 +3141,25 @@
         <v>353</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J16" s="18">
-        <v>1946</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>2640</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1895</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -3058,21 +3173,25 @@
         <v>43419</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J17" s="18">
-        <v>1838</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>3174</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>205</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1752</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -3086,18 +3205,18 @@
         <v>76317</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J18" s="18">
-        <v>1836</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1856</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -3112,7 +3231,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1910.25</v>
+        <v>1900</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3127,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3137,7 +3256,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -3175,11 +3294,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>69825</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1771</v>
+      </c>
       <c r="E23" s="10">
         <v>1</v>
       </c>
@@ -3193,21 +3316,25 @@
         <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="J23" s="18">
-        <v>1845</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>69744</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1735</v>
+      </c>
       <c r="E24" s="10">
         <v>1</v>
       </c>
@@ -3221,21 +3348,25 @@
         <v>27715</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="J24" s="18">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>86291</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1738</v>
+      </c>
       <c r="E25" s="10">
         <v>1</v>
       </c>
@@ -3249,21 +3380,25 @@
         <v>655</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="J25" s="18">
-        <v>1641</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>67415</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="12">
         <v>1</v>
       </c>
@@ -3277,18 +3412,18 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="J26" s="18">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1748</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -3303,7 +3438,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1692.5</v>
+        <v>1709</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -3445,7 +3580,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3485,7 +3620,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3495,7 +3630,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -3537,25 +3672,29 @@
         <v>76325</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18">
+        <v>1922</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>59811</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="18">
         <v>1926</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -3565,10 +3704,10 @@
         <v>2283</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="18">
-        <v>1900</v>
+        <v>1978</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -3579,11 +3718,15 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>81523</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>214</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1884</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -3593,10 +3736,10 @@
         <v>76333</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="18">
-        <v>1919</v>
+        <v>1894</v>
       </c>
       <c r="E7" s="10">
         <v>0.5</v>
@@ -3607,11 +3750,15 @@
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>71081</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1847</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -3621,10 +3768,10 @@
         <v>31348</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18">
-        <v>1916</v>
+        <v>1880</v>
       </c>
       <c r="E8" s="10">
         <v>0.5</v>
@@ -3635,11 +3782,15 @@
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>71412</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1770</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -3678,7 +3829,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1915.25</v>
+        <v>1918.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -3691,9 +3842,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1856.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3708,7 +3859,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3718,7 +3869,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3760,10 +3911,10 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18">
-        <v>2021</v>
+        <v>2034</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -3774,11 +3925,15 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>36056</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>216</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1941</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -3788,10 +3943,10 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18">
-        <v>1946</v>
+        <v>1929</v>
       </c>
       <c r="E16" s="10">
         <v>0.5</v>
@@ -3802,24 +3957,28 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>1589</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>217</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1866</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
       <c r="B17" s="19">
-        <v>43419</v>
+        <v>19313</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D17" s="18">
-        <v>1838</v>
+        <v>1794</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -3830,11 +3989,15 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>50369</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1828</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5">
@@ -3844,10 +4007,10 @@
         <v>76317</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" s="18">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="E18" s="10">
         <v>0.5</v>
@@ -3858,18 +4021,22 @@
       <c r="G18" s="10">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>47490</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1858</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1910.25</v>
+        <v>1900</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -3882,9 +4049,9 @@
         <v>3</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1873.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3899,7 +4066,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3909,7 +4076,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -3951,10 +4118,10 @@
         <v>43419</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
-        <v>1845</v>
+        <v>1824</v>
       </c>
       <c r="E23" s="10">
         <v>0.5</v>
@@ -3965,11 +4132,15 @@
       <c r="G23" s="10">
         <v>0.5</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>92622</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1700</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -3979,10 +4150,10 @@
         <v>27715</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -3993,11 +4164,15 @@
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>64424</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>221</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1438</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -4007,10 +4182,10 @@
         <v>655</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
-        <v>1641</v>
+        <v>1734</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -4021,11 +4196,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>67164</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>222</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1363</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -4035,10 +4214,10 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -4049,18 +4228,22 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>64874</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1293</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1692.5</v>
+        <v>1709</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -4073,9 +4256,9 @@
         <v>0.5</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1448.5</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -4218,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4239,7 +4422,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="21">
       <c r="A1" s="25" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="19.5" thickBot="1">
@@ -4249,10 +4432,10 @@
     </row>
     <row r="3" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="32" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="C3" s="34">
         <f t="shared" ref="C3:N3" si="0">MATCH("XX",C4:C15,0)</f>
@@ -4303,13 +4486,13 @@
         <v>12</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
@@ -4329,10 +4512,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="D4" s="41">
         <v>1.5</v>
@@ -4381,7 +4564,7 @@
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="U4" s="46">
         <f>IF(D4="","",IF(D4&gt;$C5,1,IF(D4=$C5,0.5,0)))</f>
@@ -4428,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="AG4" s="64" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AH4" s="65">
         <f>D4+C5</f>
@@ -4480,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C5" s="41">
         <v>2.5</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="E5" s="41">
         <v>1.5</v>
@@ -4536,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="V5" s="46">
         <f>IF(E5="","",IF(E5&gt;$D6,1,IF(E5=$D6,0.5,0)))</f>
@@ -4583,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="AH5" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AI5" s="45">
         <f>E5+D6</f>
@@ -4631,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C6" s="41">
         <v>2</v>
@@ -4640,7 +4823,7 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="F6" s="41">
         <v>2.5</v>
@@ -4691,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="W6" s="46">
         <f>IF(F6="","",IF(F6&gt;$E7,1,IF(F6=$E7,0.5,0)))</f>
@@ -4738,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="AI6" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AJ6" s="45">
         <f>F6+E7</f>
@@ -4782,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -4794,7 +4977,7 @@
         <v>1.5</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="G7" s="41">
         <v>2.5</v>
@@ -4846,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="X7" s="46">
         <f>IF(G7="","",IF(G7&gt;$F8,1,IF(G7=$F8,0.5,0)))</f>
@@ -4893,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="AJ7" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AK7" s="45">
         <f>G7+F8</f>
@@ -4933,7 +5116,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C8" s="41">
         <v>2</v>
@@ -4948,7 +5131,7 @@
         <v>1.5</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="H8" s="41">
         <v>3</v>
@@ -5001,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Y8" s="46">
         <f>IF(H8="","",IF(H8&gt;$G9,1,IF(H8=$G9,0.5,0)))</f>
@@ -5048,7 +5231,7 @@
         <v>4</v>
       </c>
       <c r="AK8" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="45">
         <f>H8+G9</f>
@@ -5084,7 +5267,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
@@ -5102,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="I9" s="41">
         <v>3</v>
@@ -5156,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z9" s="46">
         <f>IF(I9="","",IF(I9&gt;$H10,1,IF(I9=$H10,0.5,0)))</f>
@@ -5203,7 +5386,7 @@
         <v>4</v>
       </c>
       <c r="AL9" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AM9" s="45">
         <f>I9+H10</f>
@@ -5235,7 +5418,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C10" s="41">
         <v>1.5</v>
@@ -5256,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="J10" s="41">
         <v>1.5</v>
@@ -5311,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AA10" s="46">
         <f>IF(J10="","",IF(J10&gt;$I11,1,IF(J10=$I11,0.5,0)))</f>
@@ -5358,7 +5541,7 @@
         <v>4</v>
       </c>
       <c r="AM10" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AN10" s="45">
         <f>J10+I11</f>
@@ -5386,7 +5569,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C11" s="41">
         <v>0.5</v>
@@ -5410,7 +5593,7 @@
         <v>2.5</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="K11" s="41">
         <v>2</v>
@@ -5466,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="AA11" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AB11" s="46">
         <f>IF(K11="","",IF(K11&gt;$J12,1,IF(K11=$J12,0.5,0)))</f>
@@ -5513,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="AN11" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AO11" s="45">
         <f>K11+J12</f>
@@ -5537,7 +5720,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="C12" s="41">
         <v>1</v>
@@ -5564,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="L12" s="41">
         <v>1</v>
@@ -5621,7 +5804,7 @@
         <v>0.5</v>
       </c>
       <c r="AB12" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AC12" s="46">
         <f>IF(L12="","",IF(L12&gt;$K13,1,IF(L12=$K13,0.5,0)))</f>
@@ -5668,7 +5851,7 @@
         <v>4</v>
       </c>
       <c r="AO12" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AP12" s="45">
         <f>L12+K13</f>
@@ -5688,7 +5871,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C13" s="41">
         <v>0</v>
@@ -5718,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="M13" s="41">
         <v>1.5</v>
@@ -5776,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AD13" s="46">
         <f>IF(M13="","",IF(M13&gt;$L14,1,IF(M13=$L14,0.5,0)))</f>
@@ -5823,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="AP13" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AQ13" s="45">
         <f>M13+L14</f>
@@ -5839,7 +6022,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C14" s="41">
         <v>0.5</v>
@@ -5872,7 +6055,7 @@
         <v>2.5</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="N14" s="41">
         <v>0.5</v>
@@ -5931,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="AD14" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AE14" s="48">
         <f>IF(N14="","",IF(N14&gt;$M15,1,IF(N14=$M15,0.5,0)))</f>
@@ -5978,7 +6161,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AR14" s="68">
         <f>N14+M15</f>
@@ -5990,7 +6173,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C15" s="51">
         <v>1</v>
@@ -6026,7 +6209,7 @@
         <v>3.5</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="O15" s="53">
         <f t="shared" si="1"/>
@@ -6086,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="56" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AG15" s="69">
         <f>C15+N4</f>
@@ -6133,7 +6316,7 @@
         <v>4</v>
       </c>
       <c r="AR15" s="70" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="20.25" thickTop="1" thickBot="1">
@@ -6143,10 +6326,10 @@
     </row>
     <row r="17" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="32" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="C17" s="34">
         <f t="shared" ref="C17:N17" si="4">MATCH("XX",C18:C29,0)</f>
@@ -6197,13 +6380,13 @@
         <v>12</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
@@ -6223,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="D18" s="41">
         <v>1</v>
@@ -6275,7 +6458,7 @@
       </c>
       <c r="S18" s="44"/>
       <c r="T18" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="U18" s="46">
         <f>IF(D18="","",IF(D18&gt;$C19,1,IF(D18=$C19,0.5,0)))</f>
@@ -6322,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="AG18" s="64" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AH18" s="65">
         <f>D18+C19</f>
@@ -6374,13 +6557,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C19" s="41">
         <v>3</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="E19" s="41">
         <v>2</v>
@@ -6430,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="V19" s="46">
         <f>IF(E19="","",IF(E19&gt;$D20,1,IF(E19=$D20,0.5,0)))</f>
@@ -6477,7 +6660,7 @@
         <v>4</v>
       </c>
       <c r="AH19" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AI19" s="45">
         <f>E19+D20</f>
@@ -6525,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C20" s="41">
         <v>2</v>
@@ -6534,7 +6717,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="F20" s="41">
         <v>1.5</v>
@@ -6585,7 +6768,7 @@
         <v>0.5</v>
       </c>
       <c r="V20" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="W20" s="46">
         <f>IF(F20="","",IF(F20&gt;$E21,1,IF(F20=$E21,0.5,0)))</f>
@@ -6632,7 +6815,7 @@
         <v>4</v>
       </c>
       <c r="AI20" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AJ20" s="45">
         <f>F20+E21</f>
@@ -6676,7 +6859,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C21" s="41">
         <v>0</v>
@@ -6688,7 +6871,7 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="G21" s="41">
         <v>1.5</v>
@@ -6740,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="X21" s="46">
         <f>IF(G21="","",IF(G21&gt;$F22,1,IF(G21=$F22,0.5,0)))</f>
@@ -6787,7 +6970,7 @@
         <v>4</v>
       </c>
       <c r="AJ21" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AK21" s="45">
         <f>G21+F22</f>
@@ -6827,7 +7010,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C22" s="41">
         <v>1</v>
@@ -6842,7 +7025,7 @@
         <v>2.5</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="H22" s="41">
         <v>2.5</v>
@@ -6895,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="X22" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Y22" s="46">
         <f>IF(H22="","",IF(H22&gt;$G23,1,IF(H22=$G23,0.5,0)))</f>
@@ -6942,7 +7125,7 @@
         <v>4</v>
       </c>
       <c r="AK22" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AL22" s="45">
         <f>H22+G23</f>
@@ -6978,7 +7161,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C23" s="41">
         <v>1.5</v>
@@ -6996,7 +7179,7 @@
         <v>1.5</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="I23" s="41">
         <v>2</v>
@@ -7051,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z23" s="46">
         <f>IF(I23="","",IF(I23&gt;$H24,1,IF(I23=$H24,0.5,0)))</f>
@@ -7098,7 +7281,7 @@
         <v>4</v>
       </c>
       <c r="AL23" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AM23" s="45">
         <f>I23+H24</f>
@@ -7130,7 +7313,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C24" s="41">
         <v>1.5</v>
@@ -7151,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="J24" s="41">
         <v>2.5</v>
@@ -7206,7 +7389,7 @@
         <v>0.5</v>
       </c>
       <c r="Z24" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AA24" s="46">
         <f>IF(J24="","",IF(J24&gt;$I25,1,IF(J24=$I25,0.5,0)))</f>
@@ -7253,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="AM24" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AN24" s="45">
         <f>J24+I25</f>
@@ -7281,7 +7464,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C25" s="41">
         <v>2</v>
@@ -7305,7 +7488,7 @@
         <v>1.5</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="K25" s="41">
         <v>2</v>
@@ -7361,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AB25" s="46">
         <f>IF(K25="","",IF(K25&gt;$J26,1,IF(K25=$J26,0.5,0)))</f>
@@ -7408,7 +7591,7 @@
         <v>4</v>
       </c>
       <c r="AN25" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AO25" s="45">
         <f>K25+J26</f>
@@ -7432,7 +7615,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="C26" s="41">
         <v>0.5</v>
@@ -7459,7 +7642,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="L26" s="41">
         <v>2</v>
@@ -7516,7 +7699,7 @@
         <v>0.5</v>
       </c>
       <c r="AB26" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AC26" s="46">
         <f>IF(L26="","",IF(L26&gt;$K27,1,IF(L26=$K27,0.5,0)))</f>
@@ -7563,7 +7746,7 @@
         <v>4</v>
       </c>
       <c r="AO26" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AP26" s="45">
         <f>L26+K27</f>
@@ -7583,7 +7766,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="C27" s="41">
         <v>2</v>
@@ -7613,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="M27" s="41">
         <v>2.5</v>
@@ -7671,7 +7854,7 @@
         <v>0.5</v>
       </c>
       <c r="AC27" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AD27" s="46">
         <f>IF(M27="","",IF(M27&gt;$L28,1,IF(M27=$L28,0.5,0)))</f>
@@ -7718,7 +7901,7 @@
         <v>4</v>
       </c>
       <c r="AP27" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AQ27" s="45">
         <f>M27+L28</f>
@@ -7734,7 +7917,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C28" s="41">
         <v>1.5</v>
@@ -7767,7 +7950,7 @@
         <v>1.5</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="N28" s="41">
         <v>3.5</v>
@@ -7826,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AE28" s="48">
         <f>IF(N28="","",IF(N28&gt;$M29,1,IF(N28=$M29,0.5,0)))</f>
@@ -7873,7 +8056,7 @@
         <v>4</v>
       </c>
       <c r="AQ28" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AR28" s="68">
         <f>N28+M29</f>
@@ -7885,7 +8068,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C29" s="51">
         <v>0</v>
@@ -7921,7 +8104,7 @@
         <v>0.5</v>
       </c>
       <c r="N29" s="52" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="O29" s="53">
         <f t="shared" si="5"/>
@@ -7981,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="56" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AG29" s="69">
         <f>C29+N18</f>
@@ -8028,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="AR29" s="70" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:44" ht="20.25" thickTop="1" thickBot="1">
@@ -8038,10 +8221,10 @@
     </row>
     <row r="31" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="32" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="C31" s="34">
         <f t="shared" ref="C31:N31" si="8">MATCH("XX",C32:C43,0)</f>
@@ -8092,13 +8275,13 @@
         <v>12</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -8118,10 +8301,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="D32" s="41">
         <v>2.5</v>
@@ -8170,7 +8353,7 @@
       </c>
       <c r="S32" s="44"/>
       <c r="T32" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="U32" s="46">
         <f>IF(D32="","",IF(D32&gt;$C33,1,IF(D32=$C33,0.5,0)))</f>
@@ -8217,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="AG32" s="64" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AH32" s="65">
         <f>D32+C33</f>
@@ -8269,13 +8452,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C33" s="41">
         <v>1.5</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="E33" s="41">
         <v>4</v>
@@ -8325,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="V33" s="46">
         <f>IF(E33="","",IF(E33&gt;$D34,1,IF(E33=$D34,0.5,0)))</f>
@@ -8372,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="AH33" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AI33" s="45">
         <f>E33+D34</f>
@@ -8420,7 +8603,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C34" s="41">
         <v>1</v>
@@ -8429,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="F34" s="41">
         <v>2.5</v>
@@ -8480,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="61" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="W34" s="60">
         <f>IF(F34="","",IF(F34&gt;$E35,1,IF(F34=$E35,0.5,0)))</f>
@@ -8528,7 +8711,7 @@
         <v>4</v>
       </c>
       <c r="AI34" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AJ34" s="45">
         <f>F34+E35</f>
@@ -8572,7 +8755,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C35" s="41">
         <v>0</v>
@@ -8584,7 +8767,7 @@
         <v>1.5</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="G35" s="41">
         <v>3.5</v>
@@ -8636,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="X35" s="46">
         <f>IF(G35="","",IF(G35&gt;$F36,1,IF(G35=$F36,0.5,0)))</f>
@@ -8683,7 +8866,7 @@
         <v>4</v>
       </c>
       <c r="AJ35" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AK35" s="45">
         <f>G35+F36</f>
@@ -8723,7 +8906,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C36" s="41">
         <v>1.5</v>
@@ -8738,7 +8921,7 @@
         <v>0.5</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="H36" s="41">
         <v>1</v>
@@ -8791,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Y36" s="46">
         <f>IF(H36="","",IF(H36&gt;$G37,1,IF(H36=$G37,0.5,0)))</f>
@@ -8838,7 +9021,7 @@
         <v>4</v>
       </c>
       <c r="AK36" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AL36" s="45">
         <f>H36+G37</f>
@@ -8874,7 +9057,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C37" s="41">
         <v>0.5</v>
@@ -8892,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="I37" s="41">
         <v>2.5</v>
@@ -8946,7 +9129,7 @@
         <v>1</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z37" s="46">
         <f>IF(I37="","",IF(I37&gt;$H38,1,IF(I37=$H38,0.5,0)))</f>
@@ -8993,7 +9176,7 @@
         <v>4</v>
       </c>
       <c r="AL37" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AM37" s="45">
         <f>I37+H38</f>
@@ -9025,7 +9208,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C38" s="41">
         <v>1</v>
@@ -9046,7 +9229,7 @@
         <v>1.5</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="J38" s="41">
         <v>3</v>
@@ -9101,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AA38" s="46">
         <f>IF(J38="","",IF(J38&gt;$I39,1,IF(J38=$I39,0.5,0)))</f>
@@ -9148,7 +9331,7 @@
         <v>4</v>
       </c>
       <c r="AM38" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AN38" s="45">
         <f>J38+I39</f>
@@ -9176,7 +9359,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C39" s="41">
         <v>1.5</v>
@@ -9200,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="K39" s="41">
         <v>2.5</v>
@@ -9256,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AB39" s="46">
         <f>IF(K39="","",IF(K39&gt;$J40,1,IF(K39=$J40,0.5,0)))</f>
@@ -9303,7 +9486,7 @@
         <v>4</v>
       </c>
       <c r="AN39" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AO39" s="45">
         <f>K39+J40</f>
@@ -9354,7 +9537,7 @@
         <v>1.5</v>
       </c>
       <c r="K40" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="L40" s="41">
         <v>3.5</v>
@@ -9411,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AC40" s="46">
         <f>IF(L40="","",IF(L40&gt;$K41,1,IF(L40=$K41,0.5,0)))</f>
@@ -9458,7 +9641,7 @@
         <v>4</v>
       </c>
       <c r="AO40" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AP40" s="45">
         <f>L40+K41</f>
@@ -9478,7 +9661,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C41" s="41">
         <v>1.5</v>
@@ -9508,7 +9691,7 @@
         <v>0.5</v>
       </c>
       <c r="L41" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="M41" s="41">
         <v>2</v>
@@ -9566,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AD41" s="46">
         <f>IF(M41="","",IF(M41&gt;$L42,1,IF(M41=$L42,0.5,0)))</f>
@@ -9613,7 +9796,7 @@
         <v>4</v>
       </c>
       <c r="AP41" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AQ41" s="45">
         <f>M41+L42</f>
@@ -9629,7 +9812,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C42" s="41">
         <v>1.5</v>
@@ -9662,7 +9845,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="N42" s="41">
         <v>2</v>
@@ -9721,7 +9904,7 @@
         <v>0.5</v>
       </c>
       <c r="AD42" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AE42" s="48">
         <f>IF(N42="","",IF(N42&gt;$M43,1,IF(N42=$M43,0.5,0)))</f>
@@ -9768,7 +9951,7 @@
         <v>4</v>
       </c>
       <c r="AQ42" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AR42" s="68">
         <f>N42+M43</f>
@@ -9780,7 +9963,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C43" s="51">
         <v>0</v>
@@ -9816,7 +9999,7 @@
         <v>2</v>
       </c>
       <c r="N43" s="52" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="O43" s="53">
         <f t="shared" si="9"/>
@@ -9876,7 +10059,7 @@
         <v>0.5</v>
       </c>
       <c r="AE43" s="56" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AG43" s="69">
         <f>C43+N32</f>
@@ -9923,7 +10106,7 @@
         <v>4</v>
       </c>
       <c r="AR43" s="70" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:44" ht="20.25" thickTop="1" thickBot="1">
@@ -9933,10 +10116,10 @@
     </row>
     <row r="45" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="32" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="C45" s="34">
         <f t="shared" ref="C45:N45" si="12">MATCH("XX",C46:C57,0)</f>
@@ -9987,13 +10170,13 @@
         <v>12</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="P45" s="36" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="T45" s="37"/>
       <c r="U45" s="37"/>
@@ -10014,7 +10197,7 @@
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -10041,7 +10224,7 @@
       </c>
       <c r="S46" s="44"/>
       <c r="T46" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="U46" s="46" t="str">
         <f>IF(D46="","",IF(D46&gt;$C47,1,IF(D46=$C47,0.5,0)))</f>
@@ -10088,7 +10271,7 @@
         <v/>
       </c>
       <c r="AG46" s="64" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AH46" s="65">
         <f>D46+C47</f>
@@ -10142,7 +10325,7 @@
       <c r="B47" s="39"/>
       <c r="C47" s="41"/>
       <c r="D47" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
@@ -10172,7 +10355,7 @@
         <v/>
       </c>
       <c r="U47" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="V47" s="46" t="str">
         <f>IF(E47="","",IF(E47&gt;$D48,1,IF(E47=$D48,0.5,0)))</f>
@@ -10219,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AI47" s="45">
         <f>E47+D48</f>
@@ -10270,7 +10453,7 @@
       <c r="C48" s="41"/>
       <c r="D48" s="41"/>
       <c r="E48" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
@@ -10303,7 +10486,7 @@
         <v/>
       </c>
       <c r="V48" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="W48" s="46" t="str">
         <f>IF(F48="","",IF(F48&gt;$E49,1,IF(F48=$E49,0.5,0)))</f>
@@ -10350,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AJ48" s="45">
         <f>F48+E49</f>
@@ -10398,7 +10581,7 @@
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
@@ -10434,7 +10617,7 @@
         <v/>
       </c>
       <c r="W49" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="X49" s="46" t="str">
         <f>IF(G49="","",IF(G49&gt;$F50,1,IF(G49=$F50,0.5,0)))</f>
@@ -10481,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AK49" s="45">
         <f>G49+F50</f>
@@ -10526,7 +10709,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
       <c r="G50" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
@@ -10565,7 +10748,7 @@
         <v/>
       </c>
       <c r="X50" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Y50" s="46" t="str">
         <f>IF(H50="","",IF(H50&gt;$G51,1,IF(H50=$G51,0.5,0)))</f>
@@ -10612,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AL50" s="45">
         <f>H50+G51</f>
@@ -10654,7 +10837,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="I51" s="41"/>
       <c r="J51" s="41"/>
@@ -10696,7 +10879,7 @@
         <v/>
       </c>
       <c r="Y51" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z51" s="46" t="str">
         <f>IF(I51="","",IF(I51&gt;$H52,1,IF(I51=$H52,0.5,0)))</f>
@@ -10743,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AM51" s="45">
         <f>I51+H52</f>
@@ -10782,7 +10965,7 @@
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
       <c r="I52" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="J52" s="41"/>
       <c r="K52" s="41"/>
@@ -10827,7 +11010,7 @@
         <v/>
       </c>
       <c r="Z52" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AA52" s="46" t="str">
         <f>IF(J52="","",IF(J52&gt;$I53,1,IF(J52=$I53,0.5,0)))</f>
@@ -10874,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AN52" s="45">
         <f>J52+I53</f>
@@ -10910,7 +11093,7 @@
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
       <c r="J53" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="41"/>
@@ -10958,7 +11141,7 @@
         <v/>
       </c>
       <c r="AA53" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AB53" s="46" t="str">
         <f>IF(K53="","",IF(K53&gt;$J54,1,IF(K53=$J54,0.5,0)))</f>
@@ -11005,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AO53" s="45">
         <f>K53+J54</f>
@@ -11038,7 +11221,7 @@
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
       <c r="K54" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="L54" s="41"/>
       <c r="M54" s="41"/>
@@ -11089,7 +11272,7 @@
         <v/>
       </c>
       <c r="AB54" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AC54" s="46" t="str">
         <f>IF(L54="","",IF(L54&gt;$K55,1,IF(L54=$K55,0.5,0)))</f>
@@ -11136,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="AO54" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AP54" s="45">
         <f>L54+K55</f>
@@ -11166,7 +11349,7 @@
       <c r="J55" s="41"/>
       <c r="K55" s="41"/>
       <c r="L55" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="M55" s="41"/>
       <c r="N55" s="41"/>
@@ -11220,7 +11403,7 @@
         <v/>
       </c>
       <c r="AC55" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AD55" s="46" t="str">
         <f>IF(M55="","",IF(M55&gt;$L56,1,IF(M55=$L56,0.5,0)))</f>
@@ -11267,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AQ55" s="45">
         <f>M55+L56</f>
@@ -11294,7 +11477,7 @@
       <c r="K56" s="41"/>
       <c r="L56" s="41"/>
       <c r="M56" s="40" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="N56" s="41"/>
       <c r="O56" s="42">
@@ -11351,7 +11534,7 @@
         <v/>
       </c>
       <c r="AD56" s="46" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AE56" s="48" t="str">
         <f>IF(N56="","",IF(N56&gt;$M57,1,IF(N56=$M57,0.5,0)))</f>
@@ -11398,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="45" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AR56" s="68">
         <f>N56+M57</f>
@@ -11422,7 +11605,7 @@
       <c r="L57" s="51"/>
       <c r="M57" s="51"/>
       <c r="N57" s="52" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="O57" s="53">
         <f t="shared" si="13"/>
@@ -11482,7 +11665,7 @@
         <v/>
       </c>
       <c r="AE57" s="56" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AG57" s="69">
         <f>C57+N46</f>
@@ -11529,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="AR57" s="70" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:44" ht="15.75" thickTop="1"/>
@@ -11544,7 +11727,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11584,7 +11767,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -11594,7 +11777,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -11632,11 +11815,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>85022</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1836</v>
+      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
@@ -11650,21 +11837,25 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J5" s="18">
-        <v>1926</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>31381</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1787</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
@@ -11678,21 +11869,25 @@
         <v>76333</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J6" s="18">
-        <v>1900</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>68055</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1749</v>
+      </c>
       <c r="E7" s="10">
         <v>0</v>
       </c>
@@ -11706,7 +11901,7 @@
         <v>31348</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J7" s="18">
         <v>1919</v>
@@ -11716,11 +11911,15 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>12190</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1572</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
@@ -11734,7 +11933,7 @@
         <v>76317</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" s="18">
         <v>1836</v>
@@ -11775,9 +11974,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1736</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -11792,7 +11991,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1895.25</v>
+        <v>1893</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -11807,7 +12006,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -11817,7 +12016,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -11855,11 +12054,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>19208</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1975</v>
+      </c>
       <c r="E15" s="10">
         <v>0.5</v>
       </c>
@@ -11873,21 +12076,25 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J15" s="18">
-        <v>2021</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>32794</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1957</v>
+      </c>
       <c r="E16" s="10">
         <v>0.5</v>
       </c>
@@ -11901,7 +12108,7 @@
         <v>353</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J16" s="18">
         <v>1946</v>
@@ -11911,11 +12118,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>30732</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1836</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -11929,21 +12140,25 @@
         <v>43419</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="J17" s="18">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>61476</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1757</v>
+      </c>
       <c r="E18" s="12">
         <v>0.5</v>
       </c>
@@ -11957,7 +12172,7 @@
         <v>19313</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J18" s="18">
         <v>1838</v>
@@ -11966,9 +12181,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1881.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -11983,7 +12198,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1912.5</v>
+        <v>1914.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -11998,7 +12213,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -12008,7 +12223,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -12046,120 +12261,136 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>9334</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="10" t="s">
-        <v>226</v>
+        <v>86</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1756</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>226</v>
+      <c r="G23" s="10">
+        <v>0</v>
       </c>
       <c r="H23" s="19">
         <v>27715</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="J23" s="18">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>86011</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="10" t="s">
-        <v>226</v>
+        <v>83</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1392</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>226</v>
+      <c r="G24" s="10">
+        <v>0</v>
       </c>
       <c r="H24" s="19">
         <v>655</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="J24" s="18">
-        <v>1641</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>68021</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="10" t="s">
-        <v>226</v>
+        <v>84</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>226</v>
+      <c r="G25" s="10">
+        <v>1</v>
       </c>
       <c r="H25" s="19">
         <v>43346</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="J25" s="18">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>62529</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="12" t="s">
-        <v>226</v>
+        <v>85</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>226</v>
+      <c r="G26" s="12">
+        <v>0</v>
       </c>
       <c r="H26" s="19">
         <v>5479</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1574</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -12174,7 +12405,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1641.6666666666667</v>
+        <v>1638.6666666666667</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -12318,7 +12549,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12358,7 +12589,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -12368,7 +12599,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -12410,10 +12641,10 @@
         <v>76325</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18">
-        <v>1926</v>
+        <v>1916</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -12424,11 +12655,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>1287</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1997</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -12438,7 +12673,7 @@
         <v>2283</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="18">
         <v>1900</v>
@@ -12452,11 +12687,15 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>85928</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1845</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -12466,10 +12705,10 @@
         <v>76333</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="18">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E7" s="10">
         <v>0.5</v>
@@ -12480,11 +12719,15 @@
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>40274</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1823</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -12494,10 +12737,10 @@
         <v>31348</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
@@ -12508,11 +12751,15 @@
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>1279</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1798</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -12551,7 +12798,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1915.25</v>
+        <v>1913</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -12564,9 +12811,9 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1865.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -12581,7 +12828,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -12591,7 +12838,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -12633,10 +12880,10 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -12647,11 +12894,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>17515</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1775</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -12661,7 +12912,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18">
         <v>1946</v>
@@ -12672,14 +12923,18 @@
       <c r="F16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19"/>
+      <c r="G16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="19">
+        <v>12556</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1744</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -12689,10 +12944,10 @@
         <v>43419</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -12703,11 +12958,15 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>96431</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1731</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -12717,7 +12976,7 @@
         <v>19313</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D18" s="18">
         <v>1838</v>
@@ -12731,18 +12990,22 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>96440</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1521</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1912.5</v>
+        <v>1914.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -12755,9 +13018,9 @@
         <v>0</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1692.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -12772,7 +13035,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -12782,7 +13045,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -12824,7 +13087,7 @@
         <v>76317</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D23" s="18">
         <v>1836</v>
@@ -12838,11 +13101,15 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>60097</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1693</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -12852,10 +13119,10 @@
         <v>27715</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="E24" s="10">
         <v>0.5</v>
@@ -12866,11 +13133,15 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>66346</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1568</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -12880,10 +13151,10 @@
         <v>655</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -12894,11 +13165,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>5231</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1505</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -12908,10 +13183,10 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="E26" s="12">
         <v>0.5</v>
@@ -12922,18 +13197,22 @@
       <c r="G26" s="12">
         <v>0.5</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>58025</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>231</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1430</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1690.25</v>
+        <v>1688</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -12946,9 +13225,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1549</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -13090,7 +13369,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13130,7 +13409,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -13140,7 +13419,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -13178,11 +13457,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>71676</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2021</v>
+      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
@@ -13196,21 +13479,25 @@
         <v>76325</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J5" s="18">
-        <v>1926</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>82210</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1921</v>
+      </c>
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
@@ -13224,7 +13511,7 @@
         <v>2283</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J6" s="18">
         <v>1900</v>
@@ -13234,11 +13521,15 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>63193</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1854</v>
+      </c>
       <c r="E7" s="10">
         <v>0.5</v>
       </c>
@@ -13252,21 +13543,25 @@
         <v>76333</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" s="18">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>97781</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>114</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1831</v>
+      </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
@@ -13280,10 +13575,10 @@
         <v>31348</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J8" s="18">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13321,9 +13616,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1906.75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -13338,7 +13633,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1915.25</v>
+        <v>1913</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -13353,7 +13648,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -13363,7 +13658,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -13401,11 +13696,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>53449</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1979</v>
+      </c>
       <c r="E15" s="10">
         <v>0</v>
       </c>
@@ -13419,21 +13718,25 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J15" s="18">
-        <v>2021</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>22080</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1964</v>
+      </c>
       <c r="E16" s="10">
         <v>0.5</v>
       </c>
@@ -13447,7 +13750,7 @@
         <v>353</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J16" s="18">
         <v>1946</v>
@@ -13457,11 +13760,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>9342</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1859</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -13475,21 +13782,25 @@
         <v>43419</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="J17" s="18">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>49689</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>118</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1797</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -13503,7 +13814,7 @@
         <v>19313</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J18" s="18">
         <v>1838</v>
@@ -13512,9 +13823,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1899.75</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -13529,7 +13840,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1912.5</v>
+        <v>1914.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -13544,7 +13855,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -13554,7 +13865,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -13592,11 +13903,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>64157</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>120</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1668</v>
+      </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
@@ -13610,7 +13925,7 @@
         <v>76317</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J23" s="18">
         <v>1836</v>
@@ -13620,11 +13935,15 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>73695</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>121</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1638</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -13638,21 +13957,25 @@
         <v>655</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="J24" s="18">
-        <v>1641</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>73741</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1629</v>
+      </c>
       <c r="E25" s="10">
         <v>0.5</v>
       </c>
@@ -13666,21 +13989,25 @@
         <v>43346</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="J25" s="18">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>78549</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1577</v>
+      </c>
       <c r="E26" s="12">
         <v>1</v>
       </c>
@@ -13694,18 +14021,18 @@
         <v>5479</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1628</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -13720,7 +14047,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1661.3333333333333</v>
+        <v>1656.6666666666667</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -13862,7 +14189,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13902,7 +14229,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -13912,7 +14239,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -13950,11 +14277,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>80918</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>124</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1869</v>
+      </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
@@ -13968,21 +14299,25 @@
         <v>76325</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J5" s="18">
-        <v>1926</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>93688</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>126</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1824</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
@@ -13996,7 +14331,7 @@
         <v>2283</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J6" s="18">
         <v>1900</v>
@@ -14006,11 +14341,15 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>79669</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>127</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1751</v>
+      </c>
       <c r="E7" s="10">
         <v>0.5</v>
       </c>
@@ -14024,21 +14363,25 @@
         <v>76333</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" s="18">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>67539</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>128</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1658</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
@@ -14052,10 +14395,10 @@
         <v>31348</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J8" s="18">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14093,9 +14436,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1775.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -14110,7 +14453,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1915.25</v>
+        <v>1913</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -14125,7 +14468,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -14135,7 +14478,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -14173,11 +14516,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>26492</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>130</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1892</v>
+      </c>
       <c r="E15" s="10">
         <v>0.5</v>
       </c>
@@ -14191,21 +14538,25 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J15" s="18">
-        <v>2021</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>31895</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>233</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1775</v>
+      </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
@@ -14219,7 +14570,7 @@
         <v>353</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J16" s="18">
         <v>1946</v>
@@ -14229,11 +14580,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>22519</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>232</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1680</v>
+      </c>
       <c r="E17" s="10">
         <v>0.5</v>
       </c>
@@ -14247,21 +14602,25 @@
         <v>43419</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="J17" s="18">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>47589</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" s="12">
         <v>0</v>
       </c>
@@ -14275,7 +14634,7 @@
         <v>19313</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J18" s="18">
         <v>1838</v>
@@ -14284,9 +14643,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1782.3333333333333</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -14301,7 +14660,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1912.5</v>
+        <v>1914.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -14316,7 +14675,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -14326,7 +14685,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -14364,11 +14723,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>18767</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>132</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2122</v>
+      </c>
       <c r="E23" s="10">
         <v>0.5</v>
       </c>
@@ -14382,7 +14745,7 @@
         <v>76317</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J23" s="18">
         <v>1836</v>
@@ -14392,11 +14755,15 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>55816</v>
+      </c>
       <c r="C24" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="18">
+        <v>1553</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -14410,21 +14777,25 @@
         <v>27715</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="J24" s="18">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>88994</v>
+      </c>
       <c r="C25" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="18">
+        <v>1419</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -14438,21 +14809,25 @@
         <v>655</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="J25" s="18">
-        <v>1641</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>62391</v>
+      </c>
       <c r="C26" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="18">
+        <v>1278</v>
+      </c>
       <c r="E26" s="12">
         <v>1</v>
       </c>
@@ -14466,18 +14841,18 @@
         <v>5479</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1593</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -14492,7 +14867,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1751.3333333333333</v>
+        <v>1749.3333333333333</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -14633,8 +15008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14674,7 +15049,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -14684,7 +15059,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -14726,10 +15101,10 @@
         <v>76325</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18">
-        <v>1926</v>
+        <v>1916</v>
       </c>
       <c r="E5" s="10">
         <v>0.5</v>
@@ -14740,11 +15115,15 @@
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>63134</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1958</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -14754,7 +15133,7 @@
         <v>2283</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="18">
         <v>1900</v>
@@ -14768,11 +15147,15 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>44261</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1883</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -14782,10 +15165,10 @@
         <v>76333</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="18">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E7" s="10">
         <v>0.5</v>
@@ -14796,11 +15179,15 @@
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>61280</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>140</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1875</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -14810,10 +15197,10 @@
         <v>31348</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="E8" s="10">
         <v>0.5</v>
@@ -14824,11 +15211,15 @@
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>70114</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>141</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -14867,7 +15258,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1915.25</v>
+        <v>1913</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -14880,9 +15271,9 @@
         <v>1.5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1905.3333333333333</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -14897,7 +15288,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -14907,7 +15298,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -14949,10 +15340,10 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -14963,11 +15354,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>17043</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>227</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1932</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -14977,7 +15372,7 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18">
         <v>1946</v>
@@ -14991,11 +15386,15 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>45314</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>143</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1792</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -15005,10 +15404,10 @@
         <v>43419</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -15019,11 +15418,15 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>13510</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>144</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1745</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -15033,7 +15436,7 @@
         <v>19313</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D18" s="18">
         <v>1838</v>
@@ -15047,18 +15450,22 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>46604</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1912.5</v>
+        <v>1914.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -15071,9 +15478,9 @@
         <v>1.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1823</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -15088,7 +15495,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15098,7 +15505,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -15140,7 +15547,7 @@
         <v>76317</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D23" s="18">
         <v>1836</v>
@@ -15154,11 +15561,15 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>94901</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>146</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1523</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -15168,10 +15579,10 @@
         <v>27715</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="E24" s="10">
         <v>0.5</v>
@@ -15182,11 +15593,15 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>63274</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1429</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -15196,10 +15611,10 @@
         <v>655</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -15210,11 +15625,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>89729</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>149</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1418</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -15224,10 +15643,10 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="E26" s="12">
         <v>0.5</v>
@@ -15238,18 +15657,22 @@
       <c r="G26" s="12">
         <v>0.5</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>68497</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>150</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1690.25</v>
+        <v>1688</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -15262,9 +15685,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1456.6666666666667</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -15406,7 +15829,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15446,7 +15869,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -15456,7 +15879,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15494,11 +15917,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>74888</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>151</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1890</v>
+      </c>
       <c r="E5" s="10">
         <v>0.5</v>
       </c>
@@ -15512,21 +15939,25 @@
         <v>76325</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J5" s="18">
-        <v>1926</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>55671</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1803</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
@@ -15540,7 +15971,7 @@
         <v>2283</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J6" s="18">
         <v>1900</v>
@@ -15550,11 +15981,15 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>84573</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1517</v>
+      </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -15568,21 +16003,25 @@
         <v>76333</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" s="18">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>86002</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>160</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1614</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
@@ -15596,10 +16035,10 @@
         <v>31348</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J8" s="18">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15637,9 +16076,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1706</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -15654,7 +16093,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1915.25</v>
+        <v>1913</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -15669,7 +16108,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -15679,7 +16118,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -15717,11 +16156,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>21938</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>159</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2117</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -15735,21 +16178,25 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J15" s="18">
-        <v>2021</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>89265</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>155</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2067</v>
+      </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
@@ -15763,7 +16210,7 @@
         <v>353</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="J16" s="18">
         <v>1946</v>
@@ -15773,11 +16220,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>21717</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>157</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1988</v>
+      </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
@@ -15788,10 +16239,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="19">
-        <v>43419</v>
+        <v>19313</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J17" s="18">
         <v>1838</v>
@@ -15801,11 +16252,15 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>41955</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>158</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1968</v>
+      </c>
       <c r="E18" s="12">
         <v>0.5</v>
       </c>
@@ -15819,7 +16274,7 @@
         <v>76317</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J18" s="18">
         <v>1836</v>
@@ -15828,9 +16283,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>2035</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -15845,7 +16300,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1910.25</v>
+        <v>1911.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -15860,7 +16315,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15870,7 +16325,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -15908,11 +16363,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>86070</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1468</v>
+      </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
@@ -15923,24 +16382,28 @@
         <v>1</v>
       </c>
       <c r="H23" s="19">
-        <v>76317</v>
+        <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J23" s="18">
-        <v>1836</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>50580</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>162</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1090</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -15951,24 +16414,28 @@
         <v>1</v>
       </c>
       <c r="H24" s="19">
-        <v>655</v>
+        <v>27715</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="J24" s="18">
-        <v>1641</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>61034</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>161</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -15979,24 +16446,28 @@
         <v>1</v>
       </c>
       <c r="H25" s="19">
-        <v>43346</v>
+        <v>655</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="J25" s="18">
-        <v>1507</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>58629</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>164</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -16007,21 +16478,21 @@
         <v>1</v>
       </c>
       <c r="H26" s="19">
-        <v>5479</v>
+        <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>122</v>
+        <v>56</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1504</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1279</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -16036,7 +16507,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1661.3333333333333</v>
+        <v>1691</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -16178,7 +16649,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16218,7 +16689,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -16228,7 +16699,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16270,10 +16741,10 @@
         <v>76325</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -16284,11 +16755,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>49034</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>165</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1814</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -16298,10 +16773,10 @@
         <v>2283</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="18">
-        <v>1900</v>
+        <v>1978</v>
       </c>
       <c r="E6" s="10">
         <v>0.5</v>
@@ -16312,11 +16787,15 @@
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>74225</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>166</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1808</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -16326,10 +16805,10 @@
         <v>76333</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="18">
-        <v>1919</v>
+        <v>1894</v>
       </c>
       <c r="E7" s="10">
         <v>0.5</v>
@@ -16340,11 +16819,15 @@
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>93181</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>168</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1742</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -16354,10 +16837,10 @@
         <v>31348</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18">
-        <v>1916</v>
+        <v>1880</v>
       </c>
       <c r="E8" s="10">
         <v>0.5</v>
@@ -16368,11 +16851,15 @@
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>28673</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1764</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -16411,7 +16898,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1915.25</v>
+        <v>1918.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -16424,9 +16911,9 @@
         <v>1.5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1782</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -16441,7 +16928,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16451,7 +16938,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16493,10 +16980,10 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18">
-        <v>2021</v>
+        <v>2034</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -16511,9 +16998,11 @@
         <v>48569</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="J15" s="18">
+        <v>2080</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -16523,10 +17012,10 @@
         <v>353</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18">
-        <v>1946</v>
+        <v>1929</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -16541,9 +17030,11 @@
         <v>34151</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1876</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -16553,10 +17044,10 @@
         <v>43419</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D17" s="18">
-        <v>1838</v>
+        <v>1794</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -16571,9 +17062,11 @@
         <v>40142</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1827</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -16583,10 +17076,10 @@
         <v>76317</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" s="18">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="E18" s="12">
         <v>0.5</v>
@@ -16597,18 +17090,22 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>39594</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1693</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1910.25</v>
+        <v>1900</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -16621,9 +17118,9 @@
         <v>1.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1869</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -16638,7 +17135,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -16648,7 +17145,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -16676,7 +17173,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>7</v>
@@ -16690,10 +17187,10 @@
         <v>43419</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
-        <v>1845</v>
+        <v>1824</v>
       </c>
       <c r="E23" s="10">
         <v>0.5</v>
@@ -16704,11 +17201,15 @@
       <c r="G23" s="10">
         <v>0.5</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>73865</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1758</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -16718,10 +17219,10 @@
         <v>27715</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="E24" s="10">
         <v>0.5</v>
@@ -16732,11 +17233,15 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>20087</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1689</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -16746,10 +17251,10 @@
         <v>655</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
-        <v>1641</v>
+        <v>1734</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -16760,11 +17265,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>4251</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1293</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -16774,10 +17283,10 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -16788,18 +17297,22 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>59994</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="J26" s="18">
+        <v>823</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1692.5</v>
+        <v>1709</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -16812,9 +17325,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1390.75</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -16957,8 +17470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16998,7 +17511,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17008,7 +17521,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17046,11 +17559,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>72460</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>177</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2090</v>
+      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
@@ -17064,21 +17581,25 @@
         <v>76325</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J5" s="18">
-        <v>1926</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>89516</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>178</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1987</v>
+      </c>
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
@@ -17092,21 +17613,25 @@
         <v>2283</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J6" s="18">
-        <v>1900</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>95753</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>179</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2031</v>
+      </c>
       <c r="E7" s="10">
         <v>0.5</v>
       </c>
@@ -17120,21 +17645,25 @@
         <v>76333</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" s="18">
-        <v>1919</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>68721</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1935</v>
+      </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
@@ -17148,10 +17677,10 @@
         <v>5479</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -17189,9 +17718,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>2010.75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -17206,7 +17735,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1915</v>
+        <v>1931.3333333333333</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -17221,7 +17750,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -17231,7 +17760,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17269,11 +17798,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>604</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2025</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -17287,10 +17820,10 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J15" s="18">
-        <v>2021</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -17298,12 +17831,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="19">
-        <v>96506</v>
+        <v>28339</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1756</v>
+      </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
@@ -17317,10 +17852,10 @@
         <v>43419</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="J16" s="18">
-        <v>1845</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -17331,9 +17866,11 @@
         <v>41688</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1737</v>
+      </c>
       <c r="E17" s="10">
         <v>0.5</v>
       </c>
@@ -17347,21 +17884,25 @@
         <v>43419</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J17" s="18">
-        <v>1838</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>2941</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>182</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1631</v>
+      </c>
       <c r="E18" s="12">
         <v>0</v>
       </c>
@@ -17375,18 +17916,18 @@
         <v>76317</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J18" s="18">
-        <v>1836</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1787.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -17401,7 +17942,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1885</v>
+        <v>1900</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -17416,7 +17957,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -17426,7 +17967,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17464,11 +18005,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>11355</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1699</v>
+      </c>
       <c r="E23" s="10">
         <v>0.5</v>
       </c>
@@ -17482,21 +18027,25 @@
         <v>27715</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="J23" s="18">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>80292</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1568</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -17510,21 +18059,25 @@
         <v>655</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="J24" s="18">
-        <v>1641</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>25798</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1400</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -17538,7 +18091,7 @@
         <v>97595</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="J25" s="18">
         <v>1568</v>
@@ -17548,11 +18101,15 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>14281</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1523</v>
+      </c>
       <c r="E26" s="12">
         <v>0.5</v>
       </c>
@@ -17566,18 +18123,18 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="J26" s="18">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1547.5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -17592,7 +18149,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1623.25</v>
+        <v>1645</v>
       </c>
       <c r="J27" s="3"/>
     </row>

--- a/_data/ni/ni9394/individueel_eindstand_dworp_123_9394.xlsx
+++ b/_data/ni/ni9394/individueel_eindstand_dworp_123_9394.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12840"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -301,9 +301,6 @@
     <t>Barthelemy René</t>
   </si>
   <si>
-    <t>Matthys Luc</t>
-  </si>
-  <si>
     <t>418 Geraardsbergen 2</t>
   </si>
   <si>
@@ -728,6 +725,9 @@
   </si>
   <si>
     <t>Broekhuizen Peter</t>
+  </si>
+  <si>
+    <t>Matthijs Kris</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="71"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
@@ -1988,7 +1988,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2048,7 +2048,7 @@
         <v>25992</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J5" s="18">
         <v>1735</v>
@@ -2080,7 +2080,7 @@
         <v>68195</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" s="18">
         <v>1774</v>
@@ -2227,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2287,7 +2287,7 @@
         <v>76791</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J15" s="18">
         <v>1664</v>
@@ -2319,7 +2319,7 @@
         <v>60</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J16" s="18">
         <v>1633</v>
@@ -2351,7 +2351,7 @@
         <v>13765</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J17" s="18">
         <v>1585</v>
@@ -2383,7 +2383,7 @@
         <v>41777</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>58</v>
@@ -2434,7 +2434,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2558,7 +2558,7 @@
         <v>40151</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J25" s="18">
         <v>1654</v>
@@ -2800,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2852,7 +2852,7 @@
         <v>68942</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="18">
         <v>2013</v>
@@ -2884,7 +2884,7 @@
         <v>81604</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="18">
         <v>2002</v>
@@ -2916,7 +2916,7 @@
         <v>91201</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="18">
         <v>1914</v>
@@ -2948,7 +2948,7 @@
         <v>94099</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="18">
         <v>1917</v>
@@ -3039,7 +3039,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3091,7 +3091,7 @@
         <v>54500</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="18">
         <v>1892</v>
@@ -3123,7 +3123,7 @@
         <v>10961</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16" s="18">
         <v>1885</v>
@@ -3187,7 +3187,7 @@
         <v>3174</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="18">
         <v>1752</v>
@@ -3246,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3298,7 +3298,7 @@
         <v>69825</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="18">
         <v>1771</v>
@@ -3330,7 +3330,7 @@
         <v>69744</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" s="18">
         <v>1735</v>
@@ -3362,7 +3362,7 @@
         <v>86291</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="18">
         <v>1738</v>
@@ -3394,7 +3394,7 @@
         <v>67415</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>58</v>
@@ -3630,7 +3630,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -3722,7 +3722,7 @@
         <v>81523</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" s="18">
         <v>1884</v>
@@ -3754,7 +3754,7 @@
         <v>71081</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J7" s="18">
         <v>1847</v>
@@ -3786,7 +3786,7 @@
         <v>71412</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J8" s="18">
         <v>1770</v>
@@ -3869,7 +3869,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3929,7 +3929,7 @@
         <v>36056</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J15" s="18">
         <v>1941</v>
@@ -3961,7 +3961,7 @@
         <v>1589</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J16" s="18">
         <v>1866</v>
@@ -3993,7 +3993,7 @@
         <v>50369</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J17" s="18">
         <v>1828</v>
@@ -4025,7 +4025,7 @@
         <v>47490</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J18" s="18">
         <v>1858</v>
@@ -4076,7 +4076,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -4168,7 +4168,7 @@
         <v>64424</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J24" s="18">
         <v>1438</v>
@@ -4200,7 +4200,7 @@
         <v>67164</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J25" s="18">
         <v>1363</v>
@@ -4232,7 +4232,7 @@
         <v>64874</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J26" s="18">
         <v>1293</v>
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>79</v>
@@ -4663,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="41">
         <v>2.5</v>
@@ -4965,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -5116,7 +5116,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="41">
         <v>2</v>
@@ -5267,7 +5267,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="41">
         <v>1.5</v>
@@ -5569,7 +5569,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="41">
         <v>0.5</v>
@@ -5720,7 +5720,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="41">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="41">
         <v>0.5</v>
@@ -6173,7 +6173,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="51">
         <v>1</v>
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>79</v>
@@ -6557,7 +6557,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="41">
         <v>3</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="41">
         <v>2</v>
@@ -7010,7 +7010,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="41">
         <v>1</v>
@@ -7161,7 +7161,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="41">
         <v>1.5</v>
@@ -7313,7 +7313,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="41">
         <v>1.5</v>
@@ -7464,7 +7464,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="41">
         <v>2</v>
@@ -7615,7 +7615,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="41">
         <v>0.5</v>
@@ -7766,7 +7766,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="41">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="41">
         <v>1.5</v>
@@ -8068,7 +8068,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="51">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>79</v>
@@ -8452,7 +8452,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="41">
         <v>1.5</v>
@@ -8755,7 +8755,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="41">
         <v>0</v>
@@ -8906,7 +8906,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" s="41">
         <v>1.5</v>
@@ -9057,7 +9057,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" s="41">
         <v>0.5</v>
@@ -9208,7 +9208,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="41">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="41">
         <v>1.5</v>
@@ -9510,7 +9510,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" s="41">
         <v>1</v>
@@ -9661,7 +9661,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="41">
         <v>1.5</v>
@@ -9812,7 +9812,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="41">
         <v>1.5</v>
@@ -9963,7 +9963,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="51">
         <v>0</v>
@@ -11726,8 +11726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11851,7 +11851,7 @@
         <v>31381</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="18">
         <v>1787</v>
@@ -12006,7 +12006,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -12055,13 +12055,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="19">
-        <v>19208</v>
+        <v>46345</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="D15" s="18">
-        <v>1975</v>
+        <v>1934</v>
       </c>
       <c r="E15" s="10">
         <v>0.5</v>
@@ -12090,7 +12090,7 @@
         <v>32794</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="18">
         <v>1957</v>
@@ -12122,7 +12122,7 @@
         <v>30732</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="18">
         <v>1836</v>
@@ -12154,7 +12154,7 @@
         <v>61476</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="18">
         <v>1757</v>
@@ -12183,7 +12183,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1881.25</v>
+        <v>1871</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -12213,7 +12213,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -12599,7 +12599,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -12691,7 +12691,7 @@
         <v>85928</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="18">
         <v>1845</v>
@@ -12723,7 +12723,7 @@
         <v>40274</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="18">
         <v>1823</v>
@@ -12755,7 +12755,7 @@
         <v>1279</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" s="18">
         <v>1798</v>
@@ -12838,7 +12838,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -12898,7 +12898,7 @@
         <v>17515</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="18">
         <v>1775</v>
@@ -12924,13 +12924,13 @@
         <v>11</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="19">
         <v>12556</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J16" s="18">
         <v>1744</v>
@@ -12962,7 +12962,7 @@
         <v>96431</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J17" s="18">
         <v>1731</v>
@@ -13045,7 +13045,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -13105,7 +13105,7 @@
         <v>60097</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="18">
         <v>1693</v>
@@ -13137,7 +13137,7 @@
         <v>66346</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" s="18">
         <v>1568</v>
@@ -13201,7 +13201,7 @@
         <v>58025</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J26" s="18">
         <v>1430</v>
@@ -13409,7 +13409,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -13461,7 +13461,7 @@
         <v>71676</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="18">
         <v>2021</v>
@@ -13493,7 +13493,7 @@
         <v>82210</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="18">
         <v>1921</v>
@@ -13525,7 +13525,7 @@
         <v>63193</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="18">
         <v>1854</v>
@@ -13557,7 +13557,7 @@
         <v>97781</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="18">
         <v>1831</v>
@@ -13648,7 +13648,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -13700,7 +13700,7 @@
         <v>53449</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="18">
         <v>1979</v>
@@ -13732,7 +13732,7 @@
         <v>22080</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="18">
         <v>1964</v>
@@ -13796,7 +13796,7 @@
         <v>49689</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="18">
         <v>1797</v>
@@ -13855,7 +13855,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -13907,7 +13907,7 @@
         <v>64157</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="18">
         <v>1668</v>
@@ -13939,7 +13939,7 @@
         <v>73695</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="18">
         <v>1638</v>
@@ -13971,7 +13971,7 @@
         <v>73741</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="18">
         <v>1629</v>
@@ -14003,7 +14003,7 @@
         <v>78549</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="18">
         <v>1577</v>
@@ -14229,7 +14229,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -14281,7 +14281,7 @@
         <v>80918</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="18">
         <v>1869</v>
@@ -14313,7 +14313,7 @@
         <v>93688</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="18">
         <v>1824</v>
@@ -14345,7 +14345,7 @@
         <v>79669</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="18">
         <v>1751</v>
@@ -14377,7 +14377,7 @@
         <v>67539</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="18">
         <v>1658</v>
@@ -14468,7 +14468,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -14520,7 +14520,7 @@
         <v>26492</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="18">
         <v>1892</v>
@@ -14552,7 +14552,7 @@
         <v>31895</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" s="18">
         <v>1775</v>
@@ -14584,7 +14584,7 @@
         <v>22519</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" s="18">
         <v>1680</v>
@@ -14616,7 +14616,7 @@
         <v>47589</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>58</v>
@@ -14675,7 +14675,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -14727,7 +14727,7 @@
         <v>18767</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="18">
         <v>2122</v>
@@ -14759,7 +14759,7 @@
         <v>55816</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="18">
         <v>1553</v>
@@ -14791,7 +14791,7 @@
         <v>88994</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="18">
         <v>1419</v>
@@ -14823,7 +14823,7 @@
         <v>62391</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" s="18">
         <v>1278</v>
@@ -15059,7 +15059,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15119,7 +15119,7 @@
         <v>63134</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J5" s="18">
         <v>1958</v>
@@ -15151,7 +15151,7 @@
         <v>44261</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J6" s="18">
         <v>1883</v>
@@ -15183,7 +15183,7 @@
         <v>61280</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" s="18">
         <v>1875</v>
@@ -15215,7 +15215,7 @@
         <v>70114</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>58</v>
@@ -15298,7 +15298,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -15358,7 +15358,7 @@
         <v>17043</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J15" s="18">
         <v>1932</v>
@@ -15390,7 +15390,7 @@
         <v>45314</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16" s="18">
         <v>1792</v>
@@ -15422,7 +15422,7 @@
         <v>13510</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J17" s="18">
         <v>1745</v>
@@ -15454,7 +15454,7 @@
         <v>46604</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>58</v>
@@ -15505,7 +15505,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -15565,7 +15565,7 @@
         <v>94901</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J23" s="18">
         <v>1523</v>
@@ -15597,7 +15597,7 @@
         <v>63274</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J24" s="18">
         <v>1429</v>
@@ -15629,7 +15629,7 @@
         <v>89729</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J25" s="18">
         <v>1418</v>
@@ -15661,7 +15661,7 @@
         <v>68497</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>58</v>
@@ -15869,7 +15869,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -15921,7 +15921,7 @@
         <v>74888</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="18">
         <v>1890</v>
@@ -15953,7 +15953,7 @@
         <v>55671</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="18">
         <v>1803</v>
@@ -15985,7 +15985,7 @@
         <v>84573</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="18">
         <v>1517</v>
@@ -16017,7 +16017,7 @@
         <v>86002</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="18">
         <v>1614</v>
@@ -16108,7 +16108,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16160,7 +16160,7 @@
         <v>21938</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="18">
         <v>2117</v>
@@ -16192,7 +16192,7 @@
         <v>89265</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="18">
         <v>2067</v>
@@ -16224,7 +16224,7 @@
         <v>21717</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="18">
         <v>1988</v>
@@ -16256,7 +16256,7 @@
         <v>41955</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="18">
         <v>1968</v>
@@ -16315,7 +16315,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -16367,7 +16367,7 @@
         <v>86070</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23" s="18">
         <v>1468</v>
@@ -16399,7 +16399,7 @@
         <v>50580</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="18">
         <v>1090</v>
@@ -16431,7 +16431,7 @@
         <v>61034</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>58</v>
@@ -16463,7 +16463,7 @@
         <v>58629</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>58</v>
@@ -16699,7 +16699,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16759,7 +16759,7 @@
         <v>49034</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J5" s="18">
         <v>1814</v>
@@ -16791,7 +16791,7 @@
         <v>74225</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" s="18">
         <v>1808</v>
@@ -16823,7 +16823,7 @@
         <v>93181</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J7" s="18">
         <v>1742</v>
@@ -16855,7 +16855,7 @@
         <v>28673</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J8" s="18">
         <v>1764</v>
@@ -16938,7 +16938,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17145,7 +17145,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17173,7 +17173,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>7</v>
@@ -17205,7 +17205,7 @@
         <v>73865</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J23" s="18">
         <v>1758</v>
@@ -17269,7 +17269,7 @@
         <v>4251</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J25" s="18">
         <v>1293</v>
@@ -17301,7 +17301,7 @@
         <v>59994</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J26" s="18">
         <v>823</v>
@@ -17511,7 +17511,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17563,7 +17563,7 @@
         <v>72460</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="18">
         <v>2090</v>
@@ -17595,7 +17595,7 @@
         <v>89516</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="18">
         <v>1987</v>
@@ -17627,7 +17627,7 @@
         <v>95753</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="18">
         <v>2031</v>
@@ -17659,7 +17659,7 @@
         <v>68721</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="18">
         <v>1935</v>
@@ -17750,7 +17750,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -17802,7 +17802,7 @@
         <v>604</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="18">
         <v>2025</v>
@@ -17898,7 +17898,7 @@
         <v>2941</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="18">
         <v>1631</v>
@@ -17957,7 +17957,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18009,7 +18009,7 @@
         <v>11355</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="18">
         <v>1699</v>
@@ -18041,7 +18041,7 @@
         <v>80292</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="18">
         <v>1568</v>
@@ -18073,7 +18073,7 @@
         <v>25798</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25" s="18">
         <v>1400</v>
